--- a/sheets/2022-1-90_suc-undefined.xlsx
+++ b/sheets/2022-1-90_suc-undefined.xlsx
@@ -414,6 +414,9 @@
       <c r="A2" t="str">
         <v>00:00-01:00</v>
       </c>
+      <c r="B2" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -476,7 +479,7 @@
         <v>08:00-09:00</v>
       </c>
       <c r="B10" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -484,7 +487,7 @@
         <v>09:00-10:00</v>
       </c>
       <c r="B11" t="str">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -492,7 +495,7 @@
         <v>10:00-11:00</v>
       </c>
       <c r="B12" t="str">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -500,7 +503,7 @@
         <v>11:00-12:00</v>
       </c>
       <c r="B13" t="str">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -508,7 +511,7 @@
         <v>12:00-13:00</v>
       </c>
       <c r="B14" t="str">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +519,7 @@
         <v>13:00-14:00</v>
       </c>
       <c r="B15" t="str">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -524,7 +527,7 @@
         <v>14:00-15:00</v>
       </c>
       <c r="B16" t="str">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -532,7 +535,7 @@
         <v>15:00-16:00</v>
       </c>
       <c r="B17" t="str">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -540,7 +543,7 @@
         <v>16:00-17:00</v>
       </c>
       <c r="B18" t="str">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -548,7 +551,7 @@
         <v>17:00-18:00</v>
       </c>
       <c r="B19" t="str">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -556,7 +559,7 @@
         <v>18:00-19:00</v>
       </c>
       <c r="B20" t="str">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -564,7 +567,7 @@
         <v>19:00-20:00</v>
       </c>
       <c r="B21" t="str">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -572,7 +575,7 @@
         <v>20:00-21:00</v>
       </c>
       <c r="B22" t="str">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
